--- a/TestFiles/SchedulingAlgorithmTestScenarios/Scenario1/ARRAY VIEW.xlsx
+++ b/TestFiles/SchedulingAlgorithmTestScenarios/Scenario1/ARRAY VIEW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>coursesToSchedule</t>
   </si>
@@ -72,18 +72,9 @@
     <t>CS155 CS220LA CS255</t>
   </si>
   <si>
-    <t xml:space="preserve">CS155 CS255 </t>
-  </si>
-  <si>
     <t>CS155 CS255</t>
   </si>
   <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>FACULTY F NAME</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -93,30 +84,6 @@
     <t>MIN-HOURS</t>
   </si>
   <si>
-    <t>PRODEN@UNA.EDU</t>
-  </si>
-  <si>
-    <t>PATRICIA, RODEN</t>
-  </si>
-  <si>
-    <t>SAMMY, HIGHTOWER</t>
-  </si>
-  <si>
-    <t>SAMMY@</t>
-  </si>
-  <si>
-    <t>JENKINS, JANET</t>
-  </si>
-  <si>
-    <t>JANET@UNA.EDU</t>
-  </si>
-  <si>
-    <t>JERKNIS, JAMES</t>
-  </si>
-  <si>
-    <t>JERKINS@UNA.EDU</t>
-  </si>
-  <si>
     <t>ROOMS</t>
   </si>
   <si>
@@ -132,18 +99,6 @@
     <t>unavailable time</t>
   </si>
   <si>
-    <t>KELLER 210</t>
-  </si>
-  <si>
-    <t>KELLER 211</t>
-  </si>
-  <si>
-    <t>KELLER 215</t>
-  </si>
-  <si>
-    <t>RABURN 200</t>
-  </si>
-  <si>
     <t>KELLER 212</t>
   </si>
   <si>
@@ -186,12 +141,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>08:00 09:00 10:00</t>
-  </si>
-  <si>
-    <t>09:00 10:30</t>
-  </si>
-  <si>
     <t>12:00 13:30</t>
   </si>
   <si>
@@ -201,20 +150,179 @@
     <t>MID-DAY</t>
   </si>
   <si>
-    <t>EARLY</t>
-  </si>
-  <si>
     <t>LATE-AFTERNOON</t>
   </si>
   <si>
-    <t>TR/12:00</t>
+    <t>CS255</t>
+  </si>
+  <si>
+    <t>CS410W</t>
+  </si>
+  <si>
+    <t>FACULTY  NAME</t>
+  </si>
+  <si>
+    <t>JENKINS</t>
+  </si>
+  <si>
+    <t>JERKINS</t>
+  </si>
+  <si>
+    <t>MORNING</t>
+  </si>
+  <si>
+    <t>PQ FOR CS155</t>
+  </si>
+  <si>
+    <t>FACULTY NAME</t>
+  </si>
+  <si>
+    <t>RODEN</t>
+  </si>
+  <si>
+    <t>JERKNIS</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>PQ FOR CS355</t>
+  </si>
+  <si>
+    <t>PQ FOR CS410W</t>
+  </si>
+  <si>
+    <t>DAYS-OF-WEEK</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>KELLER210</t>
+  </si>
+  <si>
+    <t>KELLER310</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00 09:30 </t>
+  </si>
+  <si>
+    <t>11:00 12:30</t>
+  </si>
+  <si>
+    <t>DATA STRUCTURES FOR SCHEDULING ALGORITHM FOR TEST SCENARIO #1</t>
+  </si>
+  <si>
+    <t>CIS445LA</t>
+  </si>
+  <si>
+    <t>MATH101</t>
+  </si>
+  <si>
+    <t>CIS225L</t>
+  </si>
+  <si>
+    <t>PQ FOR CS421</t>
+  </si>
+  <si>
+    <t>PQ FOR CS455</t>
+  </si>
+  <si>
+    <t>PQ FOR CS220LA</t>
+  </si>
+  <si>
+    <t>PQ FOR CIS445LA</t>
+  </si>
+  <si>
+    <t>PQ FOR CIS225L</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES CS410W</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES CS155</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES CIS445LA</t>
+  </si>
+  <si>
+    <t>CONFLICT TIMES MATH101</t>
+  </si>
+  <si>
+    <t>MTWRFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS155 CS255 CS220LA </t>
+  </si>
+  <si>
+    <t>CS155 CS255 CS220LA</t>
+  </si>
+  <si>
+    <t>08:30 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00  08:00  09:00  10:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00 14:00 </t>
+  </si>
+  <si>
+    <t>07:59 08:59  10:00 11:00</t>
+  </si>
+  <si>
+    <t>07:30 09:00 10:30</t>
+  </si>
+  <si>
+    <t>TRS</t>
+  </si>
+  <si>
+    <t>11:00 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:00 9:30</t>
+  </si>
+  <si>
+    <t>15:00 16:30</t>
+  </si>
+  <si>
+    <t>18:00 19:30</t>
+  </si>
+  <si>
+    <t>KELLER211</t>
+  </si>
+  <si>
+    <t>KELLER215</t>
+  </si>
+  <si>
+    <t>KELLER 227</t>
+  </si>
+  <si>
+    <t>RABURN200</t>
+  </si>
+  <si>
+    <t>18:00 19:00 20:00</t>
+  </si>
+  <si>
+    <t>JENKNIS</t>
+  </si>
+  <si>
+    <t>ROGERS</t>
+  </si>
+  <si>
+    <t>SMITH</t>
+  </si>
+  <si>
+    <t>SAMMY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -240,8 +356,16 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -380,12 +504,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,18 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,16 +642,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,539 +1013,1784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="40" width="20.28515625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="12">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5">
+        <v>35</v>
+      </c>
+      <c r="I11" s="12">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="G33" s="8"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="7">
+        <v>10</v>
+      </c>
+      <c r="C40" s="7">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="12"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="5">
+        <v>60</v>
+      </c>
+      <c r="C46" s="5">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7">
+        <v>10</v>
+      </c>
+      <c r="D47" s="7">
+        <v>10</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="12"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5">
+        <v>60</v>
+      </c>
+      <c r="C53" s="5">
+        <v>25</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="7">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="D54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5">
+        <v>60</v>
+      </c>
+      <c r="C60" s="5">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="7">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7">
+        <v>10</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5">
+        <v>60</v>
+      </c>
+      <c r="C67" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8</v>
+      </c>
+      <c r="C68" s="7">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
+        <v>10</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="12"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="5">
+        <v>25</v>
+      </c>
+      <c r="C74" s="5">
+        <v>15</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="7">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7">
+        <v>5</v>
+      </c>
+      <c r="D75" s="7">
+        <v>10</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="12"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C86" s="27">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C90" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="27">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F100" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="29">
+        <v>30</v>
+      </c>
+      <c r="C102" s="5">
+        <v>25</v>
+      </c>
+      <c r="D102" s="29">
+        <v>40</v>
+      </c>
+      <c r="E102" s="5">
+        <v>25</v>
+      </c>
+      <c r="F102" s="5">
+        <v>40</v>
+      </c>
+      <c r="G102" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="106" spans="1:7" s="35" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="35">
+        <v>0</v>
+      </c>
+      <c r="C106" s="35">
+        <v>1</v>
+      </c>
+      <c r="D106" s="35">
+        <v>2</v>
+      </c>
+      <c r="E106" s="35">
+        <v>3</v>
+      </c>
+      <c r="F106" s="35">
+        <v>4</v>
+      </c>
+      <c r="G106" s="35">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="3">
+        <v>75</v>
+      </c>
+      <c r="C107" s="3">
+        <v>50</v>
+      </c>
+      <c r="D107" s="3">
+        <v>50</v>
+      </c>
+      <c r="E107" s="3">
+        <v>75</v>
+      </c>
+      <c r="F107" s="3">
+        <v>165</v>
+      </c>
+      <c r="G107" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="37">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C111" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="D111" s="34">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F111" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="G111" s="33">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="36">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F112" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="2">
+        <v>2</v>
+      </c>
+      <c r="E148" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="5">
+        <v>20</v>
+      </c>
+      <c r="E150" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+      <c r="E154" s="2">
+        <v>3</v>
+      </c>
+      <c r="F154" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="10">
+        <v>75</v>
+      </c>
+      <c r="E155" s="10">
+        <v>75</v>
+      </c>
+      <c r="F155" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="7">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E156" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="16"/>
+      <c r="E157" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5">
-        <v>40</v>
-      </c>
-      <c r="E21" s="5">
-        <v>25</v>
-      </c>
-      <c r="F21" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="12">
-        <v>75</v>
-      </c>
-      <c r="C26" s="13">
-        <v>50</v>
-      </c>
-      <c r="D26" s="13">
-        <v>50</v>
-      </c>
-      <c r="E26" s="13">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="8"/>
+      <c r="E158" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="31">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
